--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H2">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I2">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J2">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>0.03791522516725</v>
+        <v>51.284325364587</v>
       </c>
       <c r="R2">
-        <v>0.151660900669</v>
+        <v>307.705952187522</v>
       </c>
       <c r="S2">
-        <v>2.611547333368196E-05</v>
+        <v>5.575421550179846E-05</v>
       </c>
       <c r="T2">
-        <v>1.166463584012731E-05</v>
+        <v>3.721213086060862E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H3">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I3">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J3">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>5.989530079678334</v>
+        <v>2112.609232572762</v>
       </c>
       <c r="R3">
-        <v>35.93718047807</v>
+        <v>12675.65539543657</v>
       </c>
       <c r="S3">
-        <v>0.004125503999702888</v>
+        <v>0.002296742125134503</v>
       </c>
       <c r="T3">
-        <v>0.002764022378533212</v>
+        <v>0.001532918502114348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H4">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I4">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J4">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>0.1394186815513333</v>
+        <v>14.714772638937</v>
       </c>
       <c r="R4">
-        <v>0.8365120893079999</v>
+        <v>88.288635833622</v>
       </c>
       <c r="S4">
-        <v>9.602962514952733E-05</v>
+        <v>1.599729739913423E-05</v>
       </c>
       <c r="T4">
-        <v>6.433832882832375E-05</v>
+        <v>1.067710340599187E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7621465</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H5">
-        <v>3.524293</v>
+        <v>85.909826</v>
       </c>
       <c r="I5">
-        <v>0.004397468923509647</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J5">
-        <v>0.00294040225471891</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>0.2175129027561667</v>
+        <v>196.4922953852006</v>
       </c>
       <c r="R5">
-        <v>1.305077416537</v>
+        <v>1768.430658466806</v>
       </c>
       <c r="S5">
-        <v>0.0001498198253235491</v>
+        <v>0.0002136183659133085</v>
       </c>
       <c r="T5">
-        <v>0.0001003769115172473</v>
+        <v>0.0002138635038189802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.63660866666667</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H6">
-        <v>85.90982600000001</v>
+        <v>85.909826</v>
       </c>
       <c r="I6">
-        <v>0.07146318236671793</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J6">
-        <v>0.071676630198712</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>0.6161595903763335</v>
+        <v>8094.31408932666</v>
       </c>
       <c r="R6">
-        <v>3.696957542258001</v>
+        <v>72848.82680393994</v>
       </c>
       <c r="S6">
-        <v>0.0004244020517030901</v>
+        <v>0.0087998063514976</v>
       </c>
       <c r="T6">
-        <v>0.0002843426569183381</v>
+        <v>0.008809904575449926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.63660866666667</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H7">
-        <v>85.90982600000001</v>
+        <v>85.909826</v>
       </c>
       <c r="I7">
-        <v>0.07146318236671793</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J7">
-        <v>0.071676630198712</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>97.33573740263779</v>
+        <v>56.37861922412288</v>
       </c>
       <c r="R7">
-        <v>876.0216366237401</v>
+        <v>507.407573017106</v>
       </c>
       <c r="S7">
-        <v>0.06704348565358202</v>
+        <v>6.129252288236468E-05</v>
       </c>
       <c r="T7">
-        <v>0.06737711126739304</v>
+        <v>6.136285915999923E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.63660866666667</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H8">
-        <v>85.90982600000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I8">
-        <v>0.07146318236671793</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J8">
-        <v>0.071676630198712</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>2.265690295561778</v>
+        <v>2768.547693479394</v>
       </c>
       <c r="R8">
-        <v>20.391212660056</v>
+        <v>24916.92924131454</v>
       </c>
       <c r="S8">
-        <v>0.001560575579733981</v>
+        <v>0.003009851521530301</v>
       </c>
       <c r="T8">
-        <v>0.00156834140486392</v>
+        <v>0.00301330547875545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.63660866666667</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H9">
-        <v>85.90982600000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I9">
-        <v>0.07146318236671793</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J9">
-        <v>0.071676630198712</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>3.534797972914889</v>
+        <v>114047.7012514503</v>
       </c>
       <c r="R9">
-        <v>31.813181756234</v>
+        <v>1026429.311263053</v>
       </c>
       <c r="S9">
-        <v>0.002434719081698845</v>
+        <v>0.1239879840059059</v>
       </c>
       <c r="T9">
-        <v>0.002446834869536701</v>
+        <v>0.124130266503938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>249.2463</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H10">
-        <v>747.7389000000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I10">
-        <v>0.6219987149477996</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J10">
-        <v>0.6238565146260648</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>5.36290801395</v>
+        <v>794.366496195222</v>
       </c>
       <c r="R10">
-        <v>32.17744808370001</v>
+        <v>7149.298465756998</v>
       </c>
       <c r="S10">
-        <v>0.003693895542265581</v>
+        <v>0.0008636026797938486</v>
       </c>
       <c r="T10">
-        <v>0.002474851543840812</v>
+        <v>0.0008645937076549223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>249.2463</v>
+        <v>3.377213</v>
       </c>
       <c r="H11">
-        <v>747.7389000000001</v>
+        <v>6.754426</v>
       </c>
       <c r="I11">
-        <v>0.6219987149477996</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J11">
-        <v>0.6238565146260648</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>847.1873428790001</v>
+        <v>23.173007044901</v>
       </c>
       <c r="R11">
-        <v>7624.686085911</v>
+        <v>139.038042269406</v>
       </c>
       <c r="S11">
-        <v>0.5835307152731888</v>
+        <v>2.519274299547001E-05</v>
       </c>
       <c r="T11">
-        <v>0.5864345140712783</v>
+        <v>1.68144352969126E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>249.2463</v>
+        <v>3.377213</v>
       </c>
       <c r="H12">
-        <v>747.7389000000001</v>
+        <v>6.754426</v>
       </c>
       <c r="I12">
-        <v>0.6219987149477996</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J12">
-        <v>0.6238565146260648</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>19.7200349276</v>
+        <v>954.5900873512593</v>
       </c>
       <c r="R12">
-        <v>177.4803143484</v>
+        <v>5727.540524107556</v>
       </c>
       <c r="S12">
-        <v>0.01358288244417058</v>
+        <v>0.001037791197752872</v>
       </c>
       <c r="T12">
-        <v>0.01365047435781562</v>
+        <v>0.0006926547438466231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>249.2463</v>
+        <v>3.377213</v>
       </c>
       <c r="H13">
-        <v>747.7389000000001</v>
+        <v>6.754426</v>
       </c>
       <c r="I13">
-        <v>0.6219987149477996</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J13">
-        <v>0.6238565146260648</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>30.7660493689</v>
+        <v>6.648922991617667</v>
       </c>
       <c r="R13">
-        <v>276.8944443201</v>
+        <v>39.893537949706</v>
       </c>
       <c r="S13">
-        <v>0.02119122168817458</v>
+        <v>7.228436421735491E-06</v>
       </c>
       <c r="T13">
-        <v>0.02129667465313009</v>
+        <v>4.824487612681663E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.8177845</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H14">
-        <v>3.635569</v>
+        <v>7218.948608</v>
       </c>
       <c r="I14">
-        <v>0.00453631457338395</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J14">
-        <v>0.00303324249283081</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N14">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O14">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P14">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q14">
-        <v>0.03911236019425</v>
+        <v>16511.12391094493</v>
       </c>
       <c r="R14">
-        <v>0.156449440777</v>
+        <v>148600.1151985044</v>
       </c>
       <c r="S14">
-        <v>2.694004308729745E-05</v>
+        <v>0.01795021683844539</v>
       </c>
       <c r="T14">
-        <v>1.203293496217703E-05</v>
+        <v>0.01797081562237165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.8177845</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H15">
-        <v>3.635569</v>
+        <v>7218.948608</v>
       </c>
       <c r="I15">
-        <v>0.00453631457338395</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J15">
-        <v>0.00303324249283081</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N15">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O15">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P15">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q15">
-        <v>6.178643456218333</v>
+        <v>680160.1184462821</v>
       </c>
       <c r="R15">
-        <v>37.07186073731</v>
+        <v>6121441.066016539</v>
       </c>
       <c r="S15">
-        <v>0.004255762631170515</v>
+        <v>0.7394421892067755</v>
       </c>
       <c r="T15">
-        <v>0.002851293599794798</v>
+        <v>0.740290736609769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.8177845</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H16">
-        <v>3.635569</v>
+        <v>7218.948608</v>
       </c>
       <c r="I16">
-        <v>0.00453631457338395</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J16">
-        <v>0.00303324249283081</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N16">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O16">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P16">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q16">
-        <v>0.1438206859273333</v>
+        <v>4737.459889267427</v>
       </c>
       <c r="R16">
-        <v>0.8629241155639999</v>
+        <v>42637.13900340685</v>
       </c>
       <c r="S16">
-        <v>9.906166379334575E-05</v>
+        <v>0.005150372120907971</v>
       </c>
       <c r="T16">
-        <v>6.636974672652363E-05</v>
+        <v>0.005156282434048656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,70 +1464,70 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.8177845</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H17">
-        <v>3.635569</v>
+        <v>919.07312</v>
       </c>
       <c r="I17">
-        <v>0.00453631457338395</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J17">
-        <v>0.00303324249283081</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N17">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O17">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P17">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q17">
-        <v>0.2243806534701666</v>
+        <v>2102.096993836747</v>
       </c>
       <c r="R17">
-        <v>1.346283920821</v>
+        <v>18918.87294453072</v>
       </c>
       <c r="S17">
-        <v>0.0001545502353327916</v>
+        <v>0.002285313650259822</v>
       </c>
       <c r="T17">
-        <v>0.0001035462113473105</v>
+        <v>0.002287936163542481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.640366666666667</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H18">
-        <v>10.9211</v>
+        <v>919.07312</v>
       </c>
       <c r="I18">
-        <v>0.009084601811964594</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J18">
-        <v>0.009111735903913405</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N18">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O18">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P18">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q18">
-        <v>0.07832794938333333</v>
+        <v>86593.89560790652</v>
       </c>
       <c r="R18">
-        <v>0.4699676963</v>
+        <v>779345.0604711587</v>
       </c>
       <c r="S18">
-        <v>5.395118885300286E-05</v>
+        <v>0.09414133231822304</v>
       </c>
       <c r="T18">
-        <v>3.614644255560315E-05</v>
+        <v>0.09424936427017137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.640366666666667</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H19">
-        <v>10.9211</v>
+        <v>919.07312</v>
       </c>
       <c r="I19">
-        <v>0.009084601811964594</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J19">
-        <v>0.009111735903913405</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N19">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O19">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P19">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q19">
-        <v>12.37359416544444</v>
+        <v>603.1449006963022</v>
       </c>
       <c r="R19">
-        <v>111.362347489</v>
+        <v>5428.30410626672</v>
       </c>
       <c r="S19">
-        <v>0.00852275746864316</v>
+        <v>0.0006557144026594387</v>
       </c>
       <c r="T19">
-        <v>0.008565168900031598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.640366666666667</v>
-      </c>
-      <c r="H20">
-        <v>10.9211</v>
-      </c>
-      <c r="I20">
-        <v>0.009084601811964594</v>
-      </c>
-      <c r="J20">
-        <v>0.009111735903913405</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237356</v>
-      </c>
-      <c r="O20">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P20">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q20">
-        <v>0.2880209568444444</v>
-      </c>
-      <c r="R20">
-        <v>2.5921886116</v>
-      </c>
-      <c r="S20">
-        <v>0.0001983847803839432</v>
-      </c>
-      <c r="T20">
-        <v>0.0001993719940331313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.640366666666667</v>
-      </c>
-      <c r="H21">
-        <v>10.9211</v>
-      </c>
-      <c r="I21">
-        <v>0.009084601811964594</v>
-      </c>
-      <c r="J21">
-        <v>0.009111735903913405</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.370309</v>
-      </c>
-      <c r="O21">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P21">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q21">
-        <v>0.4493535133222222</v>
-      </c>
-      <c r="R21">
-        <v>4.0441816199</v>
-      </c>
-      <c r="S21">
-        <v>0.0003095083740844877</v>
-      </c>
-      <c r="T21">
-        <v>0.0003110485672930738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>115.6151456666666</v>
-      </c>
-      <c r="H22">
-        <v>346.8454369999999</v>
-      </c>
-      <c r="I22">
-        <v>0.2885197173766242</v>
-      </c>
-      <c r="J22">
-        <v>0.28938147452376</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0215165</v>
-      </c>
-      <c r="N22">
-        <v>0.043033</v>
-      </c>
-      <c r="O22">
-        <v>0.005938751083393454</v>
-      </c>
-      <c r="P22">
-        <v>0.00396702043790345</v>
-      </c>
-      <c r="Q22">
-        <v>2.487633281736833</v>
-      </c>
-      <c r="R22">
-        <v>14.925799690421</v>
-      </c>
-      <c r="S22">
-        <v>0.0017134467841508</v>
-      </c>
-      <c r="T22">
-        <v>0.001147982223786392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>115.6151456666666</v>
-      </c>
-      <c r="H23">
-        <v>346.8454369999999</v>
-      </c>
-      <c r="I23">
-        <v>0.2885197173766242</v>
-      </c>
-      <c r="J23">
-        <v>0.28938147452376</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>3.398996666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.19699</v>
-      </c>
-      <c r="O23">
-        <v>0.938154213585732</v>
-      </c>
-      <c r="P23">
-        <v>0.940015052055332</v>
-      </c>
-      <c r="Q23">
-        <v>392.9754947371811</v>
-      </c>
-      <c r="R23">
-        <v>3536.779452634629</v>
-      </c>
-      <c r="S23">
-        <v>0.2706759885594446</v>
-      </c>
-      <c r="T23">
-        <v>0.2720229418383009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>115.6151456666666</v>
-      </c>
-      <c r="H24">
-        <v>346.8454369999999</v>
-      </c>
-      <c r="I24">
-        <v>0.2885197173766242</v>
-      </c>
-      <c r="J24">
-        <v>0.28938147452376</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.237356</v>
-      </c>
-      <c r="O24">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P24">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q24">
-        <v>9.147316171619108</v>
-      </c>
-      <c r="R24">
-        <v>82.32584554457198</v>
-      </c>
-      <c r="S24">
-        <v>0.006300542605270331</v>
-      </c>
-      <c r="T24">
-        <v>0.00633189572442179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>115.6151456666666</v>
-      </c>
-      <c r="H25">
-        <v>346.8454369999999</v>
-      </c>
-      <c r="I25">
-        <v>0.2885197173766242</v>
-      </c>
-      <c r="J25">
-        <v>0.28938147452376</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.370309</v>
-      </c>
-      <c r="O25">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P25">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q25">
-        <v>14.27110965889255</v>
-      </c>
-      <c r="R25">
-        <v>128.439986930033</v>
-      </c>
-      <c r="S25">
-        <v>0.00982973942775852</v>
-      </c>
-      <c r="T25">
-        <v>0.009878654737250834</v>
+        <v>0.000656466868182239</v>
       </c>
     </row>
   </sheetData>
